--- a/books.xlsx
+++ b/books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\pcibex-hun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959E30EF-E6F5-47F2-9D99-8A470999D182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EE7443-D9AC-4467-ADBE-97B66E76A95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{247BC9A8-CFFF-4FD9-9AA6-E4850DB1993E}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
